--- a/Arginine CLS with pH BLOB_DETECTOR.xlsx
+++ b/Arginine CLS with pH BLOB_DETECTOR.xlsx
@@ -111,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -338,15 +338,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
@@ -396,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -525,37 +516,30 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,7 +821,7 @@
   <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E3" sqref="E3:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -862,12 +846,12 @@
           <t>Strain</t>
         </is>
       </c>
-      <c r="C1" s="60" t="inlineStr">
+      <c r="C1" s="57" t="inlineStr">
         <is>
           <t>Sample Number</t>
         </is>
       </c>
-      <c r="D1" s="61" t="inlineStr">
+      <c r="D1" s="59" t="inlineStr">
         <is>
           <t>Baseline</t>
         </is>
@@ -938,8 +922,8 @@
       <c r="AN1" s="42" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="41">
-      <c r="A2" s="62" t="n"/>
-      <c r="C2" s="56" t="n"/>
+      <c r="A2" s="50" t="n"/>
+      <c r="C2" s="58" t="n"/>
       <c r="D2" s="42" t="n"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
@@ -1123,7 +1107,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="41">
-      <c r="A3" s="58" t="inlineStr">
+      <c r="A3" s="55" t="inlineStr">
         <is>
           <t>0 mM Arginine</t>
         </is>
@@ -1141,7 +1125,7 @@
         <v/>
       </c>
       <c r="E3" s="9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="10" t="inlineStr">
         <is>
@@ -1264,8 +1248,8 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="41">
-      <c r="A4" s="62" t="n"/>
-      <c r="C4" s="55" t="n">
+      <c r="A4" s="50" t="n"/>
+      <c r="C4" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="16">
@@ -1396,8 +1380,8 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="41">
-      <c r="A5" s="62" t="n"/>
-      <c r="C5" s="55" t="n">
+      <c r="A5" s="50" t="n"/>
+      <c r="C5" s="15" t="n">
         <v>3</v>
       </c>
       <c r="D5" s="16">
@@ -1528,7 +1512,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="41">
-      <c r="A6" s="62" t="n"/>
+      <c r="A6" s="50" t="n"/>
       <c r="B6" s="46" t="n"/>
       <c r="C6" s="23" t="n">
         <v>4</v>
@@ -1661,7 +1645,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="41">
-      <c r="A7" s="62" t="n"/>
+      <c r="A7" s="50" t="n"/>
       <c r="B7" s="47" t="inlineStr">
         <is>
           <t>JS1582</t>
@@ -1798,8 +1782,8 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="41">
-      <c r="A8" s="62" t="n"/>
-      <c r="C8" s="55" t="n">
+      <c r="A8" s="50" t="n"/>
+      <c r="C8" s="15" t="n">
         <v>6</v>
       </c>
       <c r="D8" s="16">
@@ -1930,8 +1914,8 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="41">
-      <c r="A9" s="62" t="n"/>
-      <c r="C9" s="55" t="n">
+      <c r="A9" s="50" t="n"/>
+      <c r="C9" s="15" t="n">
         <v>7</v>
       </c>
       <c r="D9" s="16">
@@ -2062,7 +2046,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="41">
-      <c r="A10" s="62" t="n"/>
+      <c r="A10" s="50" t="n"/>
       <c r="B10" s="46" t="n"/>
       <c r="C10" s="23" t="n">
         <v>8</v>
@@ -2195,7 +2179,7 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="41">
-      <c r="A11" s="62" t="n"/>
+      <c r="A11" s="50" t="n"/>
       <c r="B11" s="48" t="inlineStr">
         <is>
           <t>JS1783</t>
@@ -2332,8 +2316,8 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="41">
-      <c r="A12" s="62" t="n"/>
-      <c r="C12" s="55" t="n">
+      <c r="A12" s="50" t="n"/>
+      <c r="C12" s="15" t="n">
         <v>10</v>
       </c>
       <c r="D12" s="16">
@@ -2464,8 +2448,8 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="41">
-      <c r="A13" s="62" t="n"/>
-      <c r="C13" s="55" t="n">
+      <c r="A13" s="50" t="n"/>
+      <c r="C13" s="15" t="n">
         <v>11</v>
       </c>
       <c r="D13" s="16">
@@ -2596,7 +2580,7 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="41">
-      <c r="A14" s="62" t="n"/>
+      <c r="A14" s="50" t="n"/>
       <c r="B14" s="46" t="n"/>
       <c r="C14" s="23" t="n">
         <v>12</v>
@@ -2729,8 +2713,8 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="41">
-      <c r="A15" s="62" t="n"/>
-      <c r="B15" s="59" t="inlineStr">
+      <c r="A15" s="50" t="n"/>
+      <c r="B15" s="56" t="inlineStr">
         <is>
           <t>JS1787</t>
         </is>
@@ -2866,8 +2850,8 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="41">
-      <c r="A16" s="62" t="n"/>
-      <c r="C16" s="55" t="n">
+      <c r="A16" s="50" t="n"/>
+      <c r="C16" s="15" t="n">
         <v>14</v>
       </c>
       <c r="D16" s="16">
@@ -2998,8 +2982,8 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="41">
-      <c r="A17" s="62" t="n"/>
-      <c r="C17" s="55" t="n">
+      <c r="A17" s="50" t="n"/>
+      <c r="C17" s="15" t="n">
         <v>15</v>
       </c>
       <c r="D17" s="16">
@@ -3130,8 +3114,8 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="41">
-      <c r="A18" s="62" t="n"/>
-      <c r="C18" s="55" t="n">
+      <c r="A18" s="50" t="n"/>
+      <c r="C18" s="15" t="n">
         <v>16</v>
       </c>
       <c r="D18" s="16">
@@ -3400,8 +3384,8 @@
       <c r="AO19" s="39" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="41">
-      <c r="A20" s="62" t="n"/>
-      <c r="C20" s="55" t="n">
+      <c r="A20" s="50" t="n"/>
+      <c r="C20" s="15" t="n">
         <v>18</v>
       </c>
       <c r="D20" s="16">
@@ -3533,8 +3517,8 @@
       <c r="AO20" s="39" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="41">
-      <c r="A21" s="62" t="n"/>
-      <c r="C21" s="55" t="n">
+      <c r="A21" s="50" t="n"/>
+      <c r="C21" s="15" t="n">
         <v>19</v>
       </c>
       <c r="D21" s="16">
@@ -3666,7 +3650,7 @@
       <c r="AO21" s="39" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="41">
-      <c r="A22" s="62" t="n"/>
+      <c r="A22" s="50" t="n"/>
       <c r="B22" s="46" t="n"/>
       <c r="C22" s="23" t="n">
         <v>20</v>
@@ -3800,7 +3784,7 @@
       <c r="AO22" s="39" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="41">
-      <c r="A23" s="62" t="n"/>
+      <c r="A23" s="50" t="n"/>
       <c r="B23" s="47" t="inlineStr">
         <is>
           <t>JS1582</t>
@@ -3938,8 +3922,8 @@
       <c r="AO23" s="39" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="41">
-      <c r="A24" s="62" t="n"/>
-      <c r="C24" s="55" t="n">
+      <c r="A24" s="50" t="n"/>
+      <c r="C24" s="15" t="n">
         <v>22</v>
       </c>
       <c r="D24" s="16">
@@ -4071,8 +4055,8 @@
       <c r="AO24" s="39" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="41">
-      <c r="A25" s="62" t="n"/>
-      <c r="C25" s="55" t="n">
+      <c r="A25" s="50" t="n"/>
+      <c r="C25" s="15" t="n">
         <v>23</v>
       </c>
       <c r="D25" s="16">
@@ -4204,7 +4188,7 @@
       <c r="AO25" s="39" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="41">
-      <c r="A26" s="62" t="n"/>
+      <c r="A26" s="50" t="n"/>
       <c r="B26" s="46" t="n"/>
       <c r="C26" s="23" t="n">
         <v>24</v>
@@ -4338,7 +4322,7 @@
       <c r="AO26" s="39" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="41">
-      <c r="A27" s="62" t="n"/>
+      <c r="A27" s="50" t="n"/>
       <c r="B27" s="48" t="inlineStr">
         <is>
           <t>JS1783</t>
@@ -4472,8 +4456,8 @@
       <c r="AO27" s="39" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="41">
-      <c r="A28" s="62" t="n"/>
-      <c r="C28" s="55" t="n">
+      <c r="A28" s="50" t="n"/>
+      <c r="C28" s="15" t="n">
         <v>26</v>
       </c>
       <c r="D28" s="16">
@@ -4601,8 +4585,8 @@
       <c r="AO28" s="39" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="41">
-      <c r="A29" s="62" t="n"/>
-      <c r="C29" s="55" t="n">
+      <c r="A29" s="50" t="n"/>
+      <c r="C29" s="15" t="n">
         <v>27</v>
       </c>
       <c r="D29" s="16">
@@ -4730,7 +4714,7 @@
       <c r="AO29" s="39" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="41">
-      <c r="A30" s="62" t="n"/>
+      <c r="A30" s="50" t="n"/>
       <c r="B30" s="46" t="n"/>
       <c r="C30" s="23" t="n">
         <v>28</v>
@@ -4860,7 +4844,7 @@
       <c r="AO30" s="39" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="41">
-      <c r="A31" s="62" t="n"/>
+      <c r="A31" s="50" t="n"/>
       <c r="B31" s="53" t="inlineStr">
         <is>
           <t>JS1787</t>
@@ -4994,8 +4978,8 @@
       <c r="AO31" s="39" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="41">
-      <c r="A32" s="62" t="n"/>
-      <c r="C32" s="55" t="n">
+      <c r="A32" s="50" t="n"/>
+      <c r="C32" s="15" t="n">
         <v>30</v>
       </c>
       <c r="D32" s="16">
@@ -5123,8 +5107,8 @@
       <c r="AO32" s="39" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="41">
-      <c r="A33" s="62" t="n"/>
-      <c r="C33" s="55" t="n">
+      <c r="A33" s="50" t="n"/>
+      <c r="C33" s="15" t="n">
         <v>31</v>
       </c>
       <c r="D33" s="16">

--- a/Arginine CLS with pH BLOB_DETECTOR.xlsx
+++ b/Arginine CLS with pH BLOB_DETECTOR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -492,23 +492,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -516,27 +521,22 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -818,35 +818,35 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E34"/>
+      <selection activeCell="G37" sqref="F37:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="10.59765625" customWidth="1" style="41" min="1" max="2"/>
-    <col width="14.796875" customWidth="1" style="41" min="3" max="3"/>
-    <col width="10.59765625" customWidth="1" style="41" min="4" max="6"/>
-    <col width="12.69921875" customWidth="1" style="41" min="7" max="7"/>
-    <col width="10.59765625" customWidth="1" style="41" min="8" max="9"/>
-    <col width="12.3984375" customWidth="1" style="41" min="10" max="10"/>
-    <col width="10.59765625" customWidth="1" style="41" min="11" max="41"/>
+    <col width="10.6640625" customWidth="1" style="41" min="1" max="2"/>
+    <col width="14.83203125" customWidth="1" style="41" min="3" max="3"/>
+    <col width="10.6640625" customWidth="1" style="41" min="4" max="6"/>
+    <col width="12.6640625" customWidth="1" style="41" min="7" max="7"/>
+    <col width="10.6640625" customWidth="1" style="41" min="8" max="9"/>
+    <col width="12.33203125" customWidth="1" style="41" min="10" max="10"/>
+    <col width="10.6640625" customWidth="1" style="41" min="11" max="41"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="41">
-      <c r="A1" s="54" t="inlineStr">
+      <c r="A1" s="58" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="B1" s="44" t="inlineStr">
+      <c r="B1" s="55" t="inlineStr">
         <is>
           <t>Strain</t>
         </is>
       </c>
-      <c r="C1" s="57" t="inlineStr">
+      <c r="C1" s="48" t="inlineStr">
         <is>
           <t>Sample Number</t>
         </is>
@@ -856,75 +856,75 @@
           <t>Baseline</t>
         </is>
       </c>
-      <c r="E1" s="43" t="n">
+      <c r="E1" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="G1" s="42" t="n"/>
-      <c r="H1" s="43" t="n">
+      <c r="G1" s="46" t="n"/>
+      <c r="H1" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="J1" s="42" t="n"/>
-      <c r="K1" s="43" t="n">
+      <c r="J1" s="46" t="n"/>
+      <c r="K1" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="M1" s="42" t="n"/>
-      <c r="N1" s="43" t="n">
+      <c r="M1" s="46" t="n"/>
+      <c r="N1" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="P1" s="42" t="n"/>
-      <c r="Q1" s="40" t="inlineStr">
+      <c r="P1" s="46" t="n"/>
+      <c r="Q1" s="45" t="inlineStr">
         <is>
           <t>Day 12</t>
         </is>
       </c>
-      <c r="S1" s="42" t="n"/>
-      <c r="T1" s="40" t="inlineStr">
+      <c r="S1" s="46" t="n"/>
+      <c r="T1" s="45" t="inlineStr">
         <is>
           <t>Day 14</t>
         </is>
       </c>
-      <c r="V1" s="42" t="n"/>
-      <c r="W1" s="40" t="inlineStr">
+      <c r="V1" s="46" t="n"/>
+      <c r="W1" s="45" t="inlineStr">
         <is>
           <t>Day 17</t>
         </is>
       </c>
-      <c r="Y1" s="42" t="n"/>
-      <c r="Z1" s="40" t="inlineStr">
+      <c r="Y1" s="46" t="n"/>
+      <c r="Z1" s="45" t="inlineStr">
         <is>
           <t>Day 19</t>
         </is>
       </c>
-      <c r="AB1" s="42" t="n"/>
-      <c r="AC1" s="40" t="inlineStr">
+      <c r="AB1" s="46" t="n"/>
+      <c r="AC1" s="45" t="inlineStr">
         <is>
           <t>Day 21</t>
         </is>
       </c>
-      <c r="AE1" s="42" t="n"/>
-      <c r="AF1" s="40" t="inlineStr">
+      <c r="AE1" s="46" t="n"/>
+      <c r="AF1" s="45" t="inlineStr">
         <is>
           <t>Day 24</t>
         </is>
       </c>
-      <c r="AH1" s="42" t="n"/>
-      <c r="AI1" s="40" t="inlineStr">
+      <c r="AH1" s="46" t="n"/>
+      <c r="AI1" s="45" t="inlineStr">
         <is>
           <t>Day 26</t>
         </is>
       </c>
-      <c r="AK1" s="42" t="n"/>
-      <c r="AL1" s="40" t="inlineStr">
+      <c r="AK1" s="46" t="n"/>
+      <c r="AL1" s="45" t="inlineStr">
         <is>
           <t>Day 28</t>
         </is>
       </c>
-      <c r="AN1" s="42" t="n"/>
+      <c r="AN1" s="46" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="41">
-      <c r="A2" s="50" t="n"/>
-      <c r="C2" s="58" t="n"/>
-      <c r="D2" s="42" t="n"/>
+      <c r="A2" s="44" t="n"/>
+      <c r="C2" s="49" t="n"/>
+      <c r="D2" s="46" t="n"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Colonies</t>
@@ -1107,12 +1107,12 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="41">
-      <c r="A3" s="55" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>0 mM Arginine</t>
         </is>
       </c>
-      <c r="B3" s="45" t="inlineStr">
+      <c r="B3" s="47" t="inlineStr">
         <is>
           <t>SY41</t>
         </is>
@@ -1136,7 +1136,9 @@
         <f t="array" ref="G3">E3*_xlfn.SWITCH(F3, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$3</f>
         <v/>
       </c>
-      <c r="H3" s="12" t="n"/>
+      <c r="H3" s="12" t="n">
+        <v>58</v>
+      </c>
       <c r="I3" s="13" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -1156,7 +1158,9 @@
         <f t="array" ref="M3">K3*_xlfn.SWITCH(L3, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$3</f>
         <v/>
       </c>
-      <c r="N3" s="12" t="n"/>
+      <c r="N3" s="12" t="n">
+        <v>163</v>
+      </c>
       <c r="O3" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1166,7 +1170,9 @@
         <f t="array" ref="P3">N3*_xlfn.SWITCH(O3, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$3</f>
         <v/>
       </c>
-      <c r="Q3" s="9" t="n"/>
+      <c r="Q3" s="9" t="n">
+        <v>238</v>
+      </c>
       <c r="R3" s="10" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1248,7 +1254,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="41">
-      <c r="A4" s="50" t="n"/>
+      <c r="A4" s="44" t="n"/>
       <c r="C4" s="15" t="n">
         <v>2</v>
       </c>
@@ -1268,7 +1274,9 @@
         <f t="array" ref="G4">E4*_xlfn.SWITCH(F4, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$4</f>
         <v/>
       </c>
-      <c r="H4" s="20" t="n"/>
+      <c r="H4" s="20" t="n">
+        <v>51</v>
+      </c>
       <c r="I4" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -1288,7 +1296,9 @@
         <f t="array" ref="M4">K4*_xlfn.SWITCH(L4, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$4</f>
         <v/>
       </c>
-      <c r="N4" s="20" t="n"/>
+      <c r="N4" s="20" t="n">
+        <v>153</v>
+      </c>
       <c r="O4" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1298,7 +1308,9 @@
         <f t="array" ref="P4">N4*_xlfn.SWITCH(O4, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$4</f>
         <v/>
       </c>
-      <c r="Q4" s="17" t="n"/>
+      <c r="Q4" s="17" t="n">
+        <v>253</v>
+      </c>
       <c r="R4" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1380,7 +1392,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="41">
-      <c r="A5" s="50" t="n"/>
+      <c r="A5" s="44" t="n"/>
       <c r="C5" s="15" t="n">
         <v>3</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v/>
       </c>
       <c r="E5" s="17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="18" t="inlineStr">
         <is>
@@ -1400,7 +1412,9 @@
         <f t="array" ref="G5">E5*_xlfn.SWITCH(F5, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$5</f>
         <v/>
       </c>
-      <c r="H5" s="20" t="n"/>
+      <c r="H5" s="20" t="n">
+        <v>39</v>
+      </c>
       <c r="I5" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -1420,7 +1434,9 @@
         <f t="array" ref="M5">K5*_xlfn.SWITCH(L5, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$5</f>
         <v/>
       </c>
-      <c r="N5" s="20" t="n"/>
+      <c r="N5" s="20" t="n">
+        <v>166</v>
+      </c>
       <c r="O5" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1430,7 +1446,9 @@
         <f t="array" ref="P5">N5*_xlfn.SWITCH(O5, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$5</f>
         <v/>
       </c>
-      <c r="Q5" s="17" t="n"/>
+      <c r="Q5" s="17" t="n">
+        <v>265</v>
+      </c>
       <c r="R5" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1512,8 +1530,8 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="41">
-      <c r="A6" s="50" t="n"/>
-      <c r="B6" s="46" t="n"/>
+      <c r="A6" s="44" t="n"/>
+      <c r="B6" s="42" t="n"/>
       <c r="C6" s="23" t="n">
         <v>4</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v/>
       </c>
       <c r="E6" s="25" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="26" t="inlineStr">
         <is>
@@ -1533,10 +1551,12 @@
         <f t="array" ref="G6">E6*_xlfn.SWITCH(F6, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$6</f>
         <v/>
       </c>
-      <c r="H6" s="28" t="n"/>
+      <c r="H6" s="28" t="n">
+        <v>159</v>
+      </c>
       <c r="I6" s="29" t="inlineStr">
         <is>
-          <t>x1000</t>
+          <t>x100</t>
         </is>
       </c>
       <c r="J6" s="30">
@@ -1553,7 +1573,9 @@
         <f t="array" ref="M6">K6*_xlfn.SWITCH(L6, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$6</f>
         <v/>
       </c>
-      <c r="N6" s="28" t="n"/>
+      <c r="N6" s="28" t="n">
+        <v>137</v>
+      </c>
       <c r="O6" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1563,7 +1585,9 @@
         <f t="array" ref="P6">N6*_xlfn.SWITCH(O6, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$6</f>
         <v/>
       </c>
-      <c r="Q6" s="25" t="n"/>
+      <c r="Q6" s="25" t="n">
+        <v>185</v>
+      </c>
       <c r="R6" s="26" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1645,8 +1669,8 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="41">
-      <c r="A7" s="50" t="n"/>
-      <c r="B7" s="47" t="inlineStr">
+      <c r="A7" s="44" t="n"/>
+      <c r="B7" s="54" t="inlineStr">
         <is>
           <t>JS1582</t>
         </is>
@@ -1659,7 +1683,7 @@
         <v/>
       </c>
       <c r="E7" s="9" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F7" s="10" t="inlineStr">
         <is>
@@ -1670,7 +1694,9 @@
         <f t="array" ref="G7">E7*_xlfn.SWITCH(F7, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$7</f>
         <v/>
       </c>
-      <c r="H7" s="12" t="n"/>
+      <c r="H7" s="12" t="n">
+        <v>154</v>
+      </c>
       <c r="I7" s="13" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -1690,7 +1716,9 @@
         <f t="array" ref="M7">K7*_xlfn.SWITCH(L7, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$7</f>
         <v/>
       </c>
-      <c r="N7" s="12" t="n"/>
+      <c r="N7" s="12" t="n">
+        <v>57</v>
+      </c>
       <c r="O7" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1700,7 +1728,9 @@
         <f t="array" ref="P7">N7*_xlfn.SWITCH(O7, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$7</f>
         <v/>
       </c>
-      <c r="Q7" s="9" t="n"/>
+      <c r="Q7" s="9" t="n">
+        <v>356</v>
+      </c>
       <c r="R7" s="10" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1782,7 +1812,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="41">
-      <c r="A8" s="50" t="n"/>
+      <c r="A8" s="44" t="n"/>
       <c r="C8" s="15" t="n">
         <v>6</v>
       </c>
@@ -1791,7 +1821,7 @@
         <v/>
       </c>
       <c r="E8" s="17" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F8" s="18" t="inlineStr">
         <is>
@@ -1802,7 +1832,9 @@
         <f t="array" ref="G8">E8*_xlfn.SWITCH(F8, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$8</f>
         <v/>
       </c>
-      <c r="H8" s="20" t="n"/>
+      <c r="H8" s="20" t="n">
+        <v>148</v>
+      </c>
       <c r="I8" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -1822,7 +1854,9 @@
         <f t="array" ref="M8">K8*_xlfn.SWITCH(L8, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$8</f>
         <v/>
       </c>
-      <c r="N8" s="20" t="n"/>
+      <c r="N8" s="20" t="n">
+        <v>131</v>
+      </c>
       <c r="O8" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1832,7 +1866,9 @@
         <f t="array" ref="P8">N8*_xlfn.SWITCH(O8, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$8</f>
         <v/>
       </c>
-      <c r="Q8" s="17" t="n"/>
+      <c r="Q8" s="17" t="n">
+        <v>131</v>
+      </c>
       <c r="R8" s="18" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1914,7 +1950,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="41">
-      <c r="A9" s="50" t="n"/>
+      <c r="A9" s="44" t="n"/>
       <c r="C9" s="15" t="n">
         <v>7</v>
       </c>
@@ -1923,7 +1959,7 @@
         <v/>
       </c>
       <c r="E9" s="17" t="n">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F9" s="18" t="inlineStr">
         <is>
@@ -1934,7 +1970,9 @@
         <f t="array" ref="G9">E9*_xlfn.SWITCH(F9, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$9</f>
         <v/>
       </c>
-      <c r="H9" s="20" t="n"/>
+      <c r="H9" s="20" t="n">
+        <v>159</v>
+      </c>
       <c r="I9" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -1954,7 +1992,9 @@
         <f t="array" ref="M9">K9*_xlfn.SWITCH(L9, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$9</f>
         <v/>
       </c>
-      <c r="N9" s="20" t="n"/>
+      <c r="N9" s="20" t="n">
+        <v>110</v>
+      </c>
       <c r="O9" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1964,7 +2004,9 @@
         <f t="array" ref="P9">N9*_xlfn.SWITCH(O9, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$9</f>
         <v/>
       </c>
-      <c r="Q9" s="17" t="n"/>
+      <c r="Q9" s="17" t="n">
+        <v>171</v>
+      </c>
       <c r="R9" s="18" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2046,8 +2088,8 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="41">
-      <c r="A10" s="50" t="n"/>
-      <c r="B10" s="46" t="n"/>
+      <c r="A10" s="44" t="n"/>
+      <c r="B10" s="42" t="n"/>
       <c r="C10" s="23" t="n">
         <v>8</v>
       </c>
@@ -2056,7 +2098,7 @@
         <v/>
       </c>
       <c r="E10" s="25" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F10" s="26" t="inlineStr">
         <is>
@@ -2067,7 +2109,9 @@
         <f t="array" ref="G10">E10*_xlfn.SWITCH(F10, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$10</f>
         <v/>
       </c>
-      <c r="H10" s="28" t="n"/>
+      <c r="H10" s="28" t="n">
+        <v>136</v>
+      </c>
       <c r="I10" s="29" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -2087,7 +2131,9 @@
         <f t="array" ref="M10">K10*_xlfn.SWITCH(L10, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$10</f>
         <v/>
       </c>
-      <c r="N10" s="28" t="n"/>
+      <c r="N10" s="28" t="n">
+        <v>158</v>
+      </c>
       <c r="O10" s="29" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2179,8 +2225,8 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="41">
-      <c r="A11" s="50" t="n"/>
-      <c r="B11" s="48" t="inlineStr">
+      <c r="A11" s="44" t="n"/>
+      <c r="B11" s="51" t="inlineStr">
         <is>
           <t>JS1783</t>
         </is>
@@ -2204,7 +2250,9 @@
         <f t="array" ref="G11">E11*_xlfn.SWITCH(F11, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$11</f>
         <v/>
       </c>
-      <c r="H11" s="12" t="n"/>
+      <c r="H11" s="12" t="n">
+        <v>124</v>
+      </c>
       <c r="I11" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2224,7 +2272,9 @@
         <f t="array" ref="M11">K11*_xlfn.SWITCH(L11, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$11</f>
         <v/>
       </c>
-      <c r="N11" s="12" t="n"/>
+      <c r="N11" s="12" t="n">
+        <v>101</v>
+      </c>
       <c r="O11" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2234,7 +2284,9 @@
         <f t="array" ref="P11">N11*_xlfn.SWITCH(O11, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$11</f>
         <v/>
       </c>
-      <c r="Q11" s="9" t="n"/>
+      <c r="Q11" s="9" t="n">
+        <v>117</v>
+      </c>
       <c r="R11" s="10" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2316,7 +2368,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="41">
-      <c r="A12" s="50" t="n"/>
+      <c r="A12" s="44" t="n"/>
       <c r="C12" s="15" t="n">
         <v>10</v>
       </c>
@@ -2336,7 +2388,9 @@
         <f t="array" ref="G12">E12*_xlfn.SWITCH(F12, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$12</f>
         <v/>
       </c>
-      <c r="H12" s="20" t="n"/>
+      <c r="H12" s="20" t="n">
+        <v>217</v>
+      </c>
       <c r="I12" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2356,7 +2410,9 @@
         <f t="array" ref="M12">K12*_xlfn.SWITCH(L12, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$12</f>
         <v/>
       </c>
-      <c r="N12" s="20" t="n"/>
+      <c r="N12" s="20" t="n">
+        <v>141</v>
+      </c>
       <c r="O12" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2366,7 +2422,9 @@
         <f t="array" ref="P12">N12*_xlfn.SWITCH(O12, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$12</f>
         <v/>
       </c>
-      <c r="Q12" s="17" t="n"/>
+      <c r="Q12" s="17" t="n">
+        <v>189</v>
+      </c>
       <c r="R12" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2448,7 +2506,7 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="41">
-      <c r="A13" s="50" t="n"/>
+      <c r="A13" s="44" t="n"/>
       <c r="C13" s="15" t="n">
         <v>11</v>
       </c>
@@ -2468,7 +2526,9 @@
         <f t="array" ref="G13">E13*_xlfn.SWITCH(F13, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$13</f>
         <v/>
       </c>
-      <c r="H13" s="20" t="n"/>
+      <c r="H13" s="20" t="n">
+        <v>78</v>
+      </c>
       <c r="I13" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2488,7 +2548,9 @@
         <f t="array" ref="M13">K13*_xlfn.SWITCH(L13, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$13</f>
         <v/>
       </c>
-      <c r="N13" s="20" t="n"/>
+      <c r="N13" s="20" t="n">
+        <v>103</v>
+      </c>
       <c r="O13" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2498,7 +2560,9 @@
         <f t="array" ref="P13">N13*_xlfn.SWITCH(O13, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$13</f>
         <v/>
       </c>
-      <c r="Q13" s="17" t="n"/>
+      <c r="Q13" s="17" t="n">
+        <v>142</v>
+      </c>
       <c r="R13" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2580,8 +2644,8 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="41">
-      <c r="A14" s="50" t="n"/>
-      <c r="B14" s="46" t="n"/>
+      <c r="A14" s="44" t="n"/>
+      <c r="B14" s="42" t="n"/>
       <c r="C14" s="23" t="n">
         <v>12</v>
       </c>
@@ -2601,7 +2665,9 @@
         <f t="array" ref="G14">E14*_xlfn.SWITCH(F14, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$14</f>
         <v/>
       </c>
-      <c r="H14" s="28" t="n"/>
+      <c r="H14" s="28" t="n">
+        <v>61</v>
+      </c>
       <c r="I14" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2621,7 +2687,9 @@
         <f t="array" ref="M14">K14*_xlfn.SWITCH(L14, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$14</f>
         <v/>
       </c>
-      <c r="N14" s="28" t="n"/>
+      <c r="N14" s="28" t="n">
+        <v>91</v>
+      </c>
       <c r="O14" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2631,7 +2699,9 @@
         <f t="array" ref="P14">N14*_xlfn.SWITCH(O14, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$14</f>
         <v/>
       </c>
-      <c r="Q14" s="25" t="n"/>
+      <c r="Q14" s="25" t="n">
+        <v>147</v>
+      </c>
       <c r="R14" s="26" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2713,8 +2783,8 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="41">
-      <c r="A15" s="50" t="n"/>
-      <c r="B15" s="56" t="inlineStr">
+      <c r="A15" s="44" t="n"/>
+      <c r="B15" s="57" t="inlineStr">
         <is>
           <t>JS1787</t>
         </is>
@@ -2727,7 +2797,7 @@
         <v/>
       </c>
       <c r="E15" s="9" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="10" t="inlineStr">
         <is>
@@ -2738,7 +2808,9 @@
         <f t="array" ref="G15">E15*_xlfn.SWITCH(F15, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$15</f>
         <v/>
       </c>
-      <c r="H15" s="12" t="n"/>
+      <c r="H15" s="12" t="n">
+        <v>86</v>
+      </c>
       <c r="I15" s="13" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -2758,7 +2830,9 @@
         <f t="array" ref="M15">K15*_xlfn.SWITCH(L15, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$15</f>
         <v/>
       </c>
-      <c r="N15" s="12" t="n"/>
+      <c r="N15" s="12" t="n">
+        <v>57</v>
+      </c>
       <c r="O15" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2768,7 +2842,9 @@
         <f t="array" ref="P15">N15*_xlfn.SWITCH(O15, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$15</f>
         <v/>
       </c>
-      <c r="Q15" s="9" t="n"/>
+      <c r="Q15" s="9" t="n">
+        <v>68</v>
+      </c>
       <c r="R15" s="10" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2850,7 +2926,7 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="41">
-      <c r="A16" s="50" t="n"/>
+      <c r="A16" s="44" t="n"/>
       <c r="C16" s="15" t="n">
         <v>14</v>
       </c>
@@ -2859,7 +2935,7 @@
         <v/>
       </c>
       <c r="E16" s="17" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F16" s="18" t="inlineStr">
         <is>
@@ -2870,7 +2946,9 @@
         <f t="array" ref="G16">E16*_xlfn.SWITCH(F16, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$16</f>
         <v/>
       </c>
-      <c r="H16" s="20" t="n"/>
+      <c r="H16" s="20" t="n">
+        <v>54</v>
+      </c>
       <c r="I16" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -2890,7 +2968,9 @@
         <f t="array" ref="M16">K16*_xlfn.SWITCH(L16, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$16</f>
         <v/>
       </c>
-      <c r="N16" s="20" t="n"/>
+      <c r="N16" s="20" t="n">
+        <v>72</v>
+      </c>
       <c r="O16" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2900,7 +2980,9 @@
         <f t="array" ref="P16">N16*_xlfn.SWITCH(O16, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$16</f>
         <v/>
       </c>
-      <c r="Q16" s="17" t="n"/>
+      <c r="Q16" s="17" t="n">
+        <v>66</v>
+      </c>
       <c r="R16" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2982,7 +3064,7 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="41">
-      <c r="A17" s="50" t="n"/>
+      <c r="A17" s="44" t="n"/>
       <c r="C17" s="15" t="n">
         <v>15</v>
       </c>
@@ -2991,7 +3073,7 @@
         <v/>
       </c>
       <c r="E17" s="17" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F17" s="18" t="inlineStr">
         <is>
@@ -3002,7 +3084,9 @@
         <f t="array" ref="G17">E17*_xlfn.SWITCH(F17, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$17</f>
         <v/>
       </c>
-      <c r="H17" s="20" t="n"/>
+      <c r="H17" s="20" t="n">
+        <v>71</v>
+      </c>
       <c r="I17" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -3022,7 +3106,9 @@
         <f t="array" ref="M17">K17*_xlfn.SWITCH(L17, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$17</f>
         <v/>
       </c>
-      <c r="N17" s="20" t="n"/>
+      <c r="N17" s="20" t="n">
+        <v>124</v>
+      </c>
       <c r="O17" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3032,7 +3118,9 @@
         <f t="array" ref="P17">N17*_xlfn.SWITCH(O17, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$17</f>
         <v/>
       </c>
-      <c r="Q17" s="17" t="n"/>
+      <c r="Q17" s="17" t="n">
+        <v>76</v>
+      </c>
       <c r="R17" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3114,7 +3202,7 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="41">
-      <c r="A18" s="50" t="n"/>
+      <c r="A18" s="44" t="n"/>
       <c r="C18" s="15" t="n">
         <v>16</v>
       </c>
@@ -3123,7 +3211,7 @@
         <v/>
       </c>
       <c r="E18" s="17" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F18" s="18" t="inlineStr">
         <is>
@@ -3134,7 +3222,9 @@
         <f t="array" ref="G18">E18*_xlfn.SWITCH(F18, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$18</f>
         <v/>
       </c>
-      <c r="H18" s="20" t="n"/>
+      <c r="H18" s="20" t="n">
+        <v>62</v>
+      </c>
       <c r="I18" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -3154,7 +3244,9 @@
         <f t="array" ref="M18">K18*_xlfn.SWITCH(L18, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$18</f>
         <v/>
       </c>
-      <c r="N18" s="20" t="n"/>
+      <c r="N18" s="20" t="n">
+        <v>65</v>
+      </c>
       <c r="O18" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3164,7 +3256,9 @@
         <f t="array" ref="P18">N18*_xlfn.SWITCH(O18, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$18</f>
         <v/>
       </c>
-      <c r="Q18" s="17" t="n"/>
+      <c r="Q18" s="17" t="n">
+        <v>76</v>
+      </c>
       <c r="R18" s="18" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3246,12 +3340,12 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="41">
-      <c r="A19" s="49" t="inlineStr">
+      <c r="A19" s="52" t="inlineStr">
         <is>
           <t>10 mM Arginine</t>
         </is>
       </c>
-      <c r="B19" s="52" t="inlineStr">
+      <c r="B19" s="56" t="inlineStr">
         <is>
           <t>SY41</t>
         </is>
@@ -3264,7 +3358,7 @@
         <v/>
       </c>
       <c r="E19" s="33" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="34" t="inlineStr">
         <is>
@@ -3275,7 +3369,9 @@
         <f t="array" ref="G19">E19*_xlfn.SWITCH(F19, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$19</f>
         <v/>
       </c>
-      <c r="H19" s="36" t="n"/>
+      <c r="H19" s="36" t="n">
+        <v>85</v>
+      </c>
       <c r="I19" s="37" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3295,7 +3391,9 @@
         <f t="array" ref="M19">K19*_xlfn.SWITCH(L19, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$19</f>
         <v/>
       </c>
-      <c r="N19" s="36" t="n"/>
+      <c r="N19" s="36" t="n">
+        <v>95</v>
+      </c>
       <c r="O19" s="37" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3305,7 +3403,9 @@
         <f t="array" ref="P19">N19*_xlfn.SWITCH(O19, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$19</f>
         <v/>
       </c>
-      <c r="Q19" s="33" t="n"/>
+      <c r="Q19" s="33" t="n">
+        <v>172</v>
+      </c>
       <c r="R19" s="34" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3384,7 +3484,7 @@
       <c r="AO19" s="39" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="41">
-      <c r="A20" s="50" t="n"/>
+      <c r="A20" s="44" t="n"/>
       <c r="C20" s="15" t="n">
         <v>18</v>
       </c>
@@ -3393,7 +3493,7 @@
         <v/>
       </c>
       <c r="E20" s="17" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="18" t="inlineStr">
         <is>
@@ -3404,7 +3504,9 @@
         <f t="array" ref="G20">E20*_xlfn.SWITCH(F20, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$20</f>
         <v/>
       </c>
-      <c r="H20" s="20" t="n"/>
+      <c r="H20" s="20" t="n">
+        <v>70</v>
+      </c>
       <c r="I20" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3424,7 +3526,9 @@
         <f t="array" ref="M20">K20*_xlfn.SWITCH(L20, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$20</f>
         <v/>
       </c>
-      <c r="N20" s="20" t="n"/>
+      <c r="N20" s="20" t="n">
+        <v>52</v>
+      </c>
       <c r="O20" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3434,7 +3538,9 @@
         <f t="array" ref="P20">N20*_xlfn.SWITCH(O20, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$20</f>
         <v/>
       </c>
-      <c r="Q20" s="17" t="n"/>
+      <c r="Q20" s="17" t="n">
+        <v>218</v>
+      </c>
       <c r="R20" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3517,7 +3623,7 @@
       <c r="AO20" s="39" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="41">
-      <c r="A21" s="50" t="n"/>
+      <c r="A21" s="44" t="n"/>
       <c r="C21" s="15" t="n">
         <v>19</v>
       </c>
@@ -3526,7 +3632,7 @@
         <v/>
       </c>
       <c r="E21" s="17" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F21" s="18" t="inlineStr">
         <is>
@@ -3537,7 +3643,9 @@
         <f t="array" ref="G21">E21*_xlfn.SWITCH(F21, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$21</f>
         <v/>
       </c>
-      <c r="H21" s="20" t="n"/>
+      <c r="H21" s="20" t="n">
+        <v>69</v>
+      </c>
       <c r="I21" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3557,7 +3665,9 @@
         <f t="array" ref="M21">K21*_xlfn.SWITCH(L21, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$21</f>
         <v/>
       </c>
-      <c r="N21" s="20" t="n"/>
+      <c r="N21" s="20" t="n">
+        <v>86</v>
+      </c>
       <c r="O21" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3567,7 +3677,9 @@
         <f t="array" ref="P21">N21*_xlfn.SWITCH(O21, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$21</f>
         <v/>
       </c>
-      <c r="Q21" s="17" t="n"/>
+      <c r="Q21" s="17" t="n">
+        <v>82</v>
+      </c>
       <c r="R21" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3650,8 +3762,8 @@
       <c r="AO21" s="39" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="41">
-      <c r="A22" s="50" t="n"/>
-      <c r="B22" s="46" t="n"/>
+      <c r="A22" s="44" t="n"/>
+      <c r="B22" s="42" t="n"/>
       <c r="C22" s="23" t="n">
         <v>20</v>
       </c>
@@ -3660,7 +3772,7 @@
         <v/>
       </c>
       <c r="E22" s="25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" s="26" t="inlineStr">
         <is>
@@ -3671,7 +3783,9 @@
         <f t="array" ref="G22">E22*_xlfn.SWITCH(F22, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$22</f>
         <v/>
       </c>
-      <c r="H22" s="28" t="n"/>
+      <c r="H22" s="28" t="n">
+        <v>95</v>
+      </c>
       <c r="I22" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3691,7 +3805,9 @@
         <f t="array" ref="M22">K22*_xlfn.SWITCH(L22, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$22</f>
         <v/>
       </c>
-      <c r="N22" s="28" t="n"/>
+      <c r="N22" s="28" t="n">
+        <v>158</v>
+      </c>
       <c r="O22" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3701,7 +3817,9 @@
         <f t="array" ref="P22">N22*_xlfn.SWITCH(O22, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$22</f>
         <v/>
       </c>
-      <c r="Q22" s="25" t="n"/>
+      <c r="Q22" s="25" t="n">
+        <v>94</v>
+      </c>
       <c r="R22" s="26" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3784,8 +3902,8 @@
       <c r="AO22" s="39" t="n"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="41">
-      <c r="A23" s="50" t="n"/>
-      <c r="B23" s="47" t="inlineStr">
+      <c r="A23" s="44" t="n"/>
+      <c r="B23" s="54" t="inlineStr">
         <is>
           <t>JS1582</t>
         </is>
@@ -3798,7 +3916,7 @@
         <v/>
       </c>
       <c r="E23" s="9" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F23" s="10" t="inlineStr">
         <is>
@@ -3809,7 +3927,9 @@
         <f t="array" ref="G23">E23*_xlfn.SWITCH(F23, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$23</f>
         <v/>
       </c>
-      <c r="H23" s="12" t="n"/>
+      <c r="H23" s="12" t="n">
+        <v>24</v>
+      </c>
       <c r="I23" s="13" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -3829,7 +3949,9 @@
         <f t="array" ref="M23">K23*_xlfn.SWITCH(L23, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$23</f>
         <v/>
       </c>
-      <c r="N23" s="12" t="n"/>
+      <c r="N23" s="12" t="n">
+        <v>191</v>
+      </c>
       <c r="O23" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3839,7 +3961,9 @@
         <f t="array" ref="P23">N23*_xlfn.SWITCH(O23, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$23</f>
         <v/>
       </c>
-      <c r="Q23" s="9" t="n"/>
+      <c r="Q23" s="9" t="n">
+        <v>255</v>
+      </c>
       <c r="R23" s="10" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3922,7 +4046,7 @@
       <c r="AO23" s="39" t="n"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="41">
-      <c r="A24" s="50" t="n"/>
+      <c r="A24" s="44" t="n"/>
       <c r="C24" s="15" t="n">
         <v>22</v>
       </c>
@@ -3942,7 +4066,9 @@
         <f t="array" ref="G24">E24*_xlfn.SWITCH(F24, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$24</f>
         <v/>
       </c>
-      <c r="H24" s="20" t="n"/>
+      <c r="H24" s="20" t="n">
+        <v>45</v>
+      </c>
       <c r="I24" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -3962,7 +4088,9 @@
         <f t="array" ref="M24">K24*_xlfn.SWITCH(L24, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$24</f>
         <v/>
       </c>
-      <c r="N24" s="20" t="n"/>
+      <c r="N24" s="20" t="n">
+        <v>139</v>
+      </c>
       <c r="O24" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3972,7 +4100,9 @@
         <f t="array" ref="P24">N24*_xlfn.SWITCH(O24, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$24</f>
         <v/>
       </c>
-      <c r="Q24" s="17" t="n"/>
+      <c r="Q24" s="17" t="n">
+        <v>458</v>
+      </c>
       <c r="R24" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4055,7 +4185,7 @@
       <c r="AO24" s="39" t="n"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="41">
-      <c r="A25" s="50" t="n"/>
+      <c r="A25" s="44" t="n"/>
       <c r="C25" s="15" t="n">
         <v>23</v>
       </c>
@@ -4064,7 +4194,7 @@
         <v/>
       </c>
       <c r="E25" s="17" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F25" s="18" t="inlineStr">
         <is>
@@ -4075,7 +4205,9 @@
         <f t="array" ref="G25">E25*_xlfn.SWITCH(F25, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$25</f>
         <v/>
       </c>
-      <c r="H25" s="20" t="n"/>
+      <c r="H25" s="20" t="n">
+        <v>158</v>
+      </c>
       <c r="I25" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -4095,7 +4227,9 @@
         <f t="array" ref="M25">K25*_xlfn.SWITCH(L25, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$25</f>
         <v/>
       </c>
-      <c r="N25" s="20" t="n"/>
+      <c r="N25" s="20" t="n">
+        <v>153</v>
+      </c>
       <c r="O25" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4105,7 +4239,9 @@
         <f t="array" ref="P25">N25*_xlfn.SWITCH(O25, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$25</f>
         <v/>
       </c>
-      <c r="Q25" s="17" t="n"/>
+      <c r="Q25" s="17" t="n">
+        <v>196</v>
+      </c>
       <c r="R25" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4188,8 +4324,8 @@
       <c r="AO25" s="39" t="n"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="41">
-      <c r="A26" s="50" t="n"/>
-      <c r="B26" s="46" t="n"/>
+      <c r="A26" s="44" t="n"/>
+      <c r="B26" s="42" t="n"/>
       <c r="C26" s="23" t="n">
         <v>24</v>
       </c>
@@ -4198,7 +4334,7 @@
         <v/>
       </c>
       <c r="E26" s="25" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F26" s="26" t="inlineStr">
         <is>
@@ -4209,7 +4345,9 @@
         <f t="array" ref="G26">E26*_xlfn.SWITCH(F26, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$26</f>
         <v/>
       </c>
-      <c r="H26" s="28" t="n"/>
+      <c r="H26" s="28" t="n">
+        <v>51</v>
+      </c>
       <c r="I26" s="29" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -4229,7 +4367,9 @@
         <f t="array" ref="M26">K26*_xlfn.SWITCH(L26, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$26</f>
         <v/>
       </c>
-      <c r="N26" s="28" t="n"/>
+      <c r="N26" s="28" t="n">
+        <v>101</v>
+      </c>
       <c r="O26" s="29" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -4239,7 +4379,9 @@
         <f t="array" ref="P26">N26*_xlfn.SWITCH(O26, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$26</f>
         <v/>
       </c>
-      <c r="Q26" s="25" t="n"/>
+      <c r="Q26" s="25" t="n">
+        <v>47</v>
+      </c>
       <c r="R26" s="26" t="inlineStr">
         <is>
           <t>x10</t>
@@ -4322,8 +4464,8 @@
       <c r="AO26" s="39" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="41">
-      <c r="A27" s="50" t="n"/>
-      <c r="B27" s="48" t="inlineStr">
+      <c r="A27" s="44" t="n"/>
+      <c r="B27" s="51" t="inlineStr">
         <is>
           <t>JS1783</t>
         </is>
@@ -4336,7 +4478,7 @@
         <v/>
       </c>
       <c r="E27" s="9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" s="10" t="inlineStr">
         <is>
@@ -4347,7 +4489,9 @@
         <f t="array" ref="G27">E27*_xlfn.SWITCH(F27, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$27</f>
         <v/>
       </c>
-      <c r="H27" s="12" t="n"/>
+      <c r="H27" s="12" t="n">
+        <v>73</v>
+      </c>
       <c r="I27" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4367,7 +4511,9 @@
         <f t="array" ref="M27">K27*_xlfn.SWITCH(L27, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$27</f>
         <v/>
       </c>
-      <c r="N27" s="12" t="n"/>
+      <c r="N27" s="12" t="n">
+        <v>61</v>
+      </c>
       <c r="O27" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4456,7 +4602,7 @@
       <c r="AO27" s="39" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="41">
-      <c r="A28" s="50" t="n"/>
+      <c r="A28" s="44" t="n"/>
       <c r="C28" s="15" t="n">
         <v>26</v>
       </c>
@@ -4465,7 +4611,7 @@
         <v/>
       </c>
       <c r="E28" s="17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" s="18" t="inlineStr">
         <is>
@@ -4476,7 +4622,9 @@
         <f t="array" ref="G28">E28*_xlfn.SWITCH(F28, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$28</f>
         <v/>
       </c>
-      <c r="H28" s="20" t="n"/>
+      <c r="H28" s="20" t="n">
+        <v>44</v>
+      </c>
       <c r="I28" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4496,7 +4644,9 @@
         <f t="array" ref="M28">K28*_xlfn.SWITCH(L28, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$28</f>
         <v/>
       </c>
-      <c r="N28" s="20" t="n"/>
+      <c r="N28" s="20" t="n">
+        <v>76</v>
+      </c>
       <c r="O28" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4585,7 +4735,7 @@
       <c r="AO28" s="39" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="41">
-      <c r="A29" s="50" t="n"/>
+      <c r="A29" s="44" t="n"/>
       <c r="C29" s="15" t="n">
         <v>27</v>
       </c>
@@ -4605,7 +4755,9 @@
         <f t="array" ref="G29">E29*_xlfn.SWITCH(F29, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$29</f>
         <v/>
       </c>
-      <c r="H29" s="20" t="n"/>
+      <c r="H29" s="20" t="n">
+        <v>51</v>
+      </c>
       <c r="I29" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4625,7 +4777,9 @@
         <f t="array" ref="M29">K29*_xlfn.SWITCH(L29, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$29</f>
         <v/>
       </c>
-      <c r="N29" s="20" t="n"/>
+      <c r="N29" s="20" t="n">
+        <v>59</v>
+      </c>
       <c r="O29" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4714,8 +4868,8 @@
       <c r="AO29" s="39" t="n"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="41">
-      <c r="A30" s="50" t="n"/>
-      <c r="B30" s="46" t="n"/>
+      <c r="A30" s="44" t="n"/>
+      <c r="B30" s="42" t="n"/>
       <c r="C30" s="23" t="n">
         <v>28</v>
       </c>
@@ -4724,7 +4878,7 @@
         <v/>
       </c>
       <c r="E30" s="25" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F30" s="26" t="inlineStr">
         <is>
@@ -4735,7 +4889,9 @@
         <f t="array" ref="G30">E30*_xlfn.SWITCH(F30, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$30</f>
         <v/>
       </c>
-      <c r="H30" s="28" t="n"/>
+      <c r="H30" s="28" t="n">
+        <v>64</v>
+      </c>
       <c r="I30" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4755,7 +4911,9 @@
         <f t="array" ref="M30">K30*_xlfn.SWITCH(L30, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$30</f>
         <v/>
       </c>
-      <c r="N30" s="28" t="n"/>
+      <c r="N30" s="28" t="n">
+        <v>332</v>
+      </c>
       <c r="O30" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4844,8 +5002,8 @@
       <c r="AO30" s="39" t="n"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="41">
-      <c r="A31" s="50" t="n"/>
-      <c r="B31" s="53" t="inlineStr">
+      <c r="A31" s="44" t="n"/>
+      <c r="B31" s="40" t="inlineStr">
         <is>
           <t>JS1787</t>
         </is>
@@ -4858,7 +5016,7 @@
         <v/>
       </c>
       <c r="E31" s="9" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" s="10" t="inlineStr">
         <is>
@@ -4869,7 +5027,9 @@
         <f t="array" ref="G31">E31*_xlfn.SWITCH(F31, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$31</f>
         <v/>
       </c>
-      <c r="H31" s="12" t="n"/>
+      <c r="H31" s="12" t="n">
+        <v>57</v>
+      </c>
       <c r="I31" s="13" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -4889,7 +5049,9 @@
         <f t="array" ref="M31">K31*_xlfn.SWITCH(L31, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$31</f>
         <v/>
       </c>
-      <c r="N31" s="12" t="n"/>
+      <c r="N31" s="12" t="n">
+        <v>338</v>
+      </c>
       <c r="O31" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4978,7 +5140,7 @@
       <c r="AO31" s="39" t="n"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="41">
-      <c r="A32" s="50" t="n"/>
+      <c r="A32" s="44" t="n"/>
       <c r="C32" s="15" t="n">
         <v>30</v>
       </c>
@@ -4998,7 +5160,9 @@
         <f t="array" ref="G32">E32*_xlfn.SWITCH(F32, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$32</f>
         <v/>
       </c>
-      <c r="H32" s="20" t="n"/>
+      <c r="H32" s="20" t="n">
+        <v>41</v>
+      </c>
       <c r="I32" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5018,7 +5182,9 @@
         <f t="array" ref="M32">K32*_xlfn.SWITCH(L32, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$32</f>
         <v/>
       </c>
-      <c r="N32" s="20" t="n"/>
+      <c r="N32" s="20" t="n">
+        <v>335</v>
+      </c>
       <c r="O32" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -5107,7 +5273,7 @@
       <c r="AO32" s="39" t="n"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="41">
-      <c r="A33" s="50" t="n"/>
+      <c r="A33" s="44" t="n"/>
       <c r="C33" s="15" t="n">
         <v>31</v>
       </c>
@@ -5116,7 +5282,7 @@
         <v/>
       </c>
       <c r="E33" s="17" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F33" s="18" t="inlineStr">
         <is>
@@ -5127,7 +5293,9 @@
         <f t="array" ref="G33">E33*_xlfn.SWITCH(F33, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$33</f>
         <v/>
       </c>
-      <c r="H33" s="20" t="n"/>
+      <c r="H33" s="20" t="n">
+        <v>45</v>
+      </c>
       <c r="I33" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5147,7 +5315,9 @@
         <f t="array" ref="M33">K33*_xlfn.SWITCH(L33, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$33</f>
         <v/>
       </c>
-      <c r="N33" s="20" t="n"/>
+      <c r="N33" s="20" t="n">
+        <v>47</v>
+      </c>
       <c r="O33" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5157,7 +5327,9 @@
         <f t="array" ref="P33">N33*_xlfn.SWITCH(O33, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$33</f>
         <v/>
       </c>
-      <c r="Q33" s="17" t="n"/>
+      <c r="Q33" s="17" t="n">
+        <v>47</v>
+      </c>
       <c r="R33" s="18" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5240,8 +5412,8 @@
       <c r="AO33" s="39" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="41">
-      <c r="A34" s="51" t="n"/>
-      <c r="B34" s="46" t="n"/>
+      <c r="A34" s="53" t="n"/>
+      <c r="B34" s="42" t="n"/>
       <c r="C34" s="23" t="n">
         <v>32</v>
       </c>
@@ -5250,7 +5422,7 @@
         <v/>
       </c>
       <c r="E34" s="25" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F34" s="26" t="inlineStr">
         <is>
@@ -5261,7 +5433,9 @@
         <f t="array" ref="G34">E34*_xlfn.SWITCH(F34, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$34</f>
         <v/>
       </c>
-      <c r="H34" s="28" t="n"/>
+      <c r="H34" s="28" t="n">
+        <v>53</v>
+      </c>
       <c r="I34" s="29" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5281,7 +5455,9 @@
         <f t="array" ref="M34">K34*_xlfn.SWITCH(L34, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$34</f>
         <v/>
       </c>
-      <c r="N34" s="28" t="n"/>
+      <c r="N34" s="28" t="n">
+        <v>65</v>
+      </c>
       <c r="O34" s="29" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5291,7 +5467,9 @@
         <f t="array" ref="P34">N34*_xlfn.SWITCH(O34, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$34</f>
         <v/>
       </c>
-      <c r="Q34" s="25" t="n"/>
+      <c r="Q34" s="25" t="n">
+        <v>45</v>
+      </c>
       <c r="R34" s="26" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5375,12 +5553,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" s="41"/>
     <row r="36" ht="15.75" customHeight="1" s="41"/>
-    <row r="37" ht="15.75" customHeight="1" s="41">
-      <c r="F37">
-        <f t="array" ref="F37">_xlfn.SWITCH(F3, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)</f>
-        <v/>
-      </c>
-    </row>
+    <row r="37" ht="15.75" customHeight="1" s="41"/>
     <row r="38" ht="15.75" customHeight="1" s="41"/>
     <row r="39" ht="15.75" customHeight="1" s="41"/>
     <row r="40" ht="15.75" customHeight="1" s="41"/>
@@ -6346,35 +6519,35 @@
     <row r="1000" ht="15.75" customHeight="1" s="41"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="F3:F34 I3:I34 L3:L34 O3:O34 R3:R34 U3:U34 X3:X34 AA3:AA34 AD3:AD34 AG3:AG34 AJ3:AJ34 AM3:AM34" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Dilution value" type="list">
+    <dataValidation sqref="F3:F34 I3:I34 L3:L34 O3:O34 R3:R34 U3:U34 X3:X34 AA3:AA34 AD3:AD34 AG3:AG34 AJ3:AJ34 AM3:AM34" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Dilution value" type="list">
       <formula1>"x10,x100,x1000"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Arginine CLS with pH BLOB_DETECTOR.xlsx
+++ b/Arginine CLS with pH BLOB_DETECTOR.xlsx
@@ -1182,7 +1182,9 @@
         <f t="array" ref="S3">Q3*_xlfn.SWITCH(R3, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$3</f>
         <v/>
       </c>
-      <c r="T3" s="12" t="n"/>
+      <c r="T3" s="12" t="n">
+        <v>110</v>
+      </c>
       <c r="U3" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1320,7 +1322,9 @@
         <f t="array" ref="S4">Q4*_xlfn.SWITCH(R4, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$4</f>
         <v/>
       </c>
-      <c r="T4" s="20" t="n"/>
+      <c r="T4" s="20" t="n">
+        <v>131</v>
+      </c>
       <c r="U4" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1458,7 +1462,9 @@
         <f t="array" ref="S5">Q5*_xlfn.SWITCH(R5, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$5</f>
         <v/>
       </c>
-      <c r="T5" s="20" t="n"/>
+      <c r="T5" s="20" t="n">
+        <v>70</v>
+      </c>
       <c r="U5" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1597,7 +1603,9 @@
         <f t="array" ref="S6">Q6*_xlfn.SWITCH(R6, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$6</f>
         <v/>
       </c>
-      <c r="T6" s="28" t="n"/>
+      <c r="T6" s="28" t="n">
+        <v>108</v>
+      </c>
       <c r="U6" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1740,7 +1748,9 @@
         <f t="array" ref="S7">Q7*_xlfn.SWITCH(R7, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$7</f>
         <v/>
       </c>
-      <c r="T7" s="12" t="n"/>
+      <c r="T7" s="12" t="n">
+        <v>188</v>
+      </c>
       <c r="U7" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1878,7 +1888,9 @@
         <f t="array" ref="S8">Q8*_xlfn.SWITCH(R8, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$8</f>
         <v/>
       </c>
-      <c r="T8" s="20" t="n"/>
+      <c r="T8" s="20" t="n">
+        <v>87</v>
+      </c>
       <c r="U8" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2016,7 +2028,9 @@
         <f t="array" ref="S9">Q9*_xlfn.SWITCH(R9, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$9</f>
         <v/>
       </c>
-      <c r="T9" s="20" t="n"/>
+      <c r="T9" s="20" t="n">
+        <v>151</v>
+      </c>
       <c r="U9" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2153,7 +2167,9 @@
         <f t="array" ref="S10">Q10*_xlfn.SWITCH(R10, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$10</f>
         <v/>
       </c>
-      <c r="T10" s="28" t="n"/>
+      <c r="T10" s="28" t="n">
+        <v>206</v>
+      </c>
       <c r="U10" s="29" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2296,7 +2312,9 @@
         <f t="array" ref="S11">Q11*_xlfn.SWITCH(R11, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$11</f>
         <v/>
       </c>
-      <c r="T11" s="12" t="n"/>
+      <c r="T11" s="12" t="n">
+        <v>132</v>
+      </c>
       <c r="U11" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2434,7 +2452,9 @@
         <f t="array" ref="S12">Q12*_xlfn.SWITCH(R12, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$12</f>
         <v/>
       </c>
-      <c r="T12" s="20" t="n"/>
+      <c r="T12" s="20" t="n">
+        <v>105</v>
+      </c>
       <c r="U12" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2572,7 +2592,9 @@
         <f t="array" ref="S13">Q13*_xlfn.SWITCH(R13, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$13</f>
         <v/>
       </c>
-      <c r="T13" s="20" t="n"/>
+      <c r="T13" s="20" t="n">
+        <v>132</v>
+      </c>
       <c r="U13" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2711,7 +2733,9 @@
         <f t="array" ref="S14">Q14*_xlfn.SWITCH(R14, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$14</f>
         <v/>
       </c>
-      <c r="T14" s="28" t="n"/>
+      <c r="T14" s="28" t="n">
+        <v>178</v>
+      </c>
       <c r="U14" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2854,7 +2878,9 @@
         <f t="array" ref="S15">Q15*_xlfn.SWITCH(R15, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$15</f>
         <v/>
       </c>
-      <c r="T15" s="12" t="n"/>
+      <c r="T15" s="12" t="n">
+        <v>44</v>
+      </c>
       <c r="U15" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2992,7 +3018,9 @@
         <f t="array" ref="S16">Q16*_xlfn.SWITCH(R16, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$16</f>
         <v/>
       </c>
-      <c r="T16" s="20" t="n"/>
+      <c r="T16" s="20" t="n">
+        <v>204</v>
+      </c>
       <c r="U16" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3130,7 +3158,9 @@
         <f t="array" ref="S17">Q17*_xlfn.SWITCH(R17, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$17</f>
         <v/>
       </c>
-      <c r="T17" s="20" t="n"/>
+      <c r="T17" s="20" t="n">
+        <v>197</v>
+      </c>
       <c r="U17" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3268,7 +3298,9 @@
         <f t="array" ref="S18">Q18*_xlfn.SWITCH(R18, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$18</f>
         <v/>
       </c>
-      <c r="T18" s="20" t="n"/>
+      <c r="T18" s="20" t="n">
+        <v>38</v>
+      </c>
       <c r="U18" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3415,7 +3447,9 @@
         <f t="array" ref="S19">Q19*_xlfn.SWITCH(R19, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$19</f>
         <v/>
       </c>
-      <c r="T19" s="36" t="n"/>
+      <c r="T19" s="36" t="n">
+        <v>82</v>
+      </c>
       <c r="U19" s="37" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3550,7 +3584,9 @@
         <f t="array" ref="S20">Q20*_xlfn.SWITCH(R20, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$20</f>
         <v/>
       </c>
-      <c r="T20" s="20" t="n"/>
+      <c r="T20" s="20" t="n">
+        <v>109</v>
+      </c>
       <c r="U20" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3689,7 +3725,9 @@
         <f t="array" ref="S21">Q21*_xlfn.SWITCH(R21, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$21</f>
         <v/>
       </c>
-      <c r="T21" s="20" t="n"/>
+      <c r="T21" s="20" t="n">
+        <v>96</v>
+      </c>
       <c r="U21" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3829,7 +3867,9 @@
         <f t="array" ref="S22">Q22*_xlfn.SWITCH(R22, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$22</f>
         <v/>
       </c>
-      <c r="T22" s="28" t="n"/>
+      <c r="T22" s="28" t="n">
+        <v>91</v>
+      </c>
       <c r="U22" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3973,7 +4013,9 @@
         <f t="array" ref="S23">Q23*_xlfn.SWITCH(R23, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$23</f>
         <v/>
       </c>
-      <c r="T23" s="12" t="n"/>
+      <c r="T23" s="12" t="n">
+        <v>215</v>
+      </c>
       <c r="U23" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4112,7 +4154,9 @@
         <f t="array" ref="S24">Q24*_xlfn.SWITCH(R24, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$24</f>
         <v/>
       </c>
-      <c r="T24" s="20" t="n"/>
+      <c r="T24" s="20" t="n">
+        <v>206</v>
+      </c>
       <c r="U24" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4251,7 +4295,9 @@
         <f t="array" ref="S25">Q25*_xlfn.SWITCH(R25, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$25</f>
         <v/>
       </c>
-      <c r="T25" s="20" t="n"/>
+      <c r="T25" s="20" t="n">
+        <v>62</v>
+      </c>
       <c r="U25" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4391,7 +4437,9 @@
         <f t="array" ref="S26">Q26*_xlfn.SWITCH(R26, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$26</f>
         <v/>
       </c>
-      <c r="T26" s="28" t="n"/>
+      <c r="T26" s="28" t="n">
+        <v>75</v>
+      </c>
       <c r="U26" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4529,7 +4577,9 @@
         <f t="array" ref="S27">Q27*_xlfn.SWITCH(R27, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$27</f>
         <v/>
       </c>
-      <c r="T27" s="12" t="n"/>
+      <c r="T27" s="12" t="n">
+        <v>125</v>
+      </c>
       <c r="U27" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4662,7 +4712,9 @@
         <f t="array" ref="S28">Q28*_xlfn.SWITCH(R28, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$28</f>
         <v/>
       </c>
-      <c r="T28" s="20" t="n"/>
+      <c r="T28" s="20" t="n">
+        <v>73</v>
+      </c>
       <c r="U28" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4795,7 +4847,9 @@
         <f t="array" ref="S29">Q29*_xlfn.SWITCH(R29, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$29</f>
         <v/>
       </c>
-      <c r="T29" s="20" t="n"/>
+      <c r="T29" s="20" t="n">
+        <v>72</v>
+      </c>
       <c r="U29" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4929,7 +4983,9 @@
         <f t="array" ref="S30">Q30*_xlfn.SWITCH(R30, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$30</f>
         <v/>
       </c>
-      <c r="T30" s="28" t="n"/>
+      <c r="T30" s="28" t="n">
+        <v>61</v>
+      </c>
       <c r="U30" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -5067,7 +5123,9 @@
         <f t="array" ref="S31">Q31*_xlfn.SWITCH(R31, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$31</f>
         <v/>
       </c>
-      <c r="T31" s="12" t="n"/>
+      <c r="T31" s="12" t="n">
+        <v>39</v>
+      </c>
       <c r="U31" s="13" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5200,7 +5258,9 @@
         <f t="array" ref="S32">Q32*_xlfn.SWITCH(R32, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$32</f>
         <v/>
       </c>
-      <c r="T32" s="20" t="n"/>
+      <c r="T32" s="20" t="n">
+        <v>34</v>
+      </c>
       <c r="U32" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5339,7 +5399,9 @@
         <f t="array" ref="S33">Q33*_xlfn.SWITCH(R33, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$33</f>
         <v/>
       </c>
-      <c r="T33" s="20" t="n"/>
+      <c r="T33" s="20" t="n">
+        <v>25</v>
+      </c>
       <c r="U33" s="21" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5479,7 +5541,9 @@
         <f t="array" ref="S34">Q34*_xlfn.SWITCH(R34, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$34</f>
         <v/>
       </c>
-      <c r="T34" s="28" t="n"/>
+      <c r="T34" s="28" t="n">
+        <v>38</v>
+      </c>
       <c r="U34" s="29" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -6547,7 +6611,7 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="F3:F34 I3:I34 L3:L34 O3:O34 R3:R34 U3:U34 X3:X34 AA3:AA34 AD3:AD34 AG3:AG34 AJ3:AJ34 AM3:AM34" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" prompt="Dilution value" type="list">
+    <dataValidation sqref="F3:F34 I3:I34 L3:L34 O3:O34 R3:R34 U3:U34 X3:X34 AA3:AA34 AD3:AD34 AG3:AG34 AJ3:AJ34 AM3:AM34" showErrorMessage="1" showDropDown="0" showInputMessage="1" allowBlank="1" prompt="Dilution value" type="list">
       <formula1>"x10,x100,x1000"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Arginine CLS with pH BLOB_DETECTOR.xlsx
+++ b/Arginine CLS with pH BLOB_DETECTOR.xlsx
@@ -1194,7 +1194,9 @@
         <f t="array" ref="V3">T3*_xlfn.SWITCH(U3, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$3</f>
         <v/>
       </c>
-      <c r="W3" s="9" t="n"/>
+      <c r="W3" s="9" t="n">
+        <v>69</v>
+      </c>
       <c r="X3" s="10" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1334,7 +1336,9 @@
         <f t="array" ref="V4">T4*_xlfn.SWITCH(U4, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$4</f>
         <v/>
       </c>
-      <c r="W4" s="17" t="n"/>
+      <c r="W4" s="17" t="n">
+        <v>103</v>
+      </c>
       <c r="X4" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1474,7 +1478,9 @@
         <f t="array" ref="V5">T5*_xlfn.SWITCH(U5, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$5</f>
         <v/>
       </c>
-      <c r="W5" s="17" t="n"/>
+      <c r="W5" s="17" t="n">
+        <v>95</v>
+      </c>
       <c r="X5" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1615,7 +1621,9 @@
         <f t="array" ref="V6">T6*_xlfn.SWITCH(U6, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$6</f>
         <v/>
       </c>
-      <c r="W6" s="25" t="n"/>
+      <c r="W6" s="25" t="n">
+        <v>101</v>
+      </c>
       <c r="X6" s="26" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1760,7 +1768,9 @@
         <f t="array" ref="V7">T7*_xlfn.SWITCH(U7, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$7</f>
         <v/>
       </c>
-      <c r="W7" s="9" t="n"/>
+      <c r="W7" s="9" t="n">
+        <v>147</v>
+      </c>
       <c r="X7" s="10" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1900,7 +1910,9 @@
         <f t="array" ref="V8">T8*_xlfn.SWITCH(U8, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$8</f>
         <v/>
       </c>
-      <c r="W8" s="17" t="n"/>
+      <c r="W8" s="17" t="n">
+        <v>55</v>
+      </c>
       <c r="X8" s="18" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2040,7 +2052,9 @@
         <f t="array" ref="V9">T9*_xlfn.SWITCH(U9, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$9</f>
         <v/>
       </c>
-      <c r="W9" s="17" t="n"/>
+      <c r="W9" s="17" t="n">
+        <v>101</v>
+      </c>
       <c r="X9" s="18" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2179,7 +2193,9 @@
         <f t="array" ref="V10">T10*_xlfn.SWITCH(U10, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$10</f>
         <v/>
       </c>
-      <c r="W10" s="25" t="n"/>
+      <c r="W10" s="25" t="n">
+        <v>81</v>
+      </c>
       <c r="X10" s="26" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2324,7 +2340,9 @@
         <f t="array" ref="V11">T11*_xlfn.SWITCH(U11, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$11</f>
         <v/>
       </c>
-      <c r="W11" s="9" t="n"/>
+      <c r="W11" s="9" t="n">
+        <v>65</v>
+      </c>
       <c r="X11" s="10" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2464,7 +2482,9 @@
         <f t="array" ref="V12">T12*_xlfn.SWITCH(U12, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$12</f>
         <v/>
       </c>
-      <c r="W12" s="17" t="n"/>
+      <c r="W12" s="17" t="n">
+        <v>32</v>
+      </c>
       <c r="X12" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2604,7 +2624,9 @@
         <f t="array" ref="V13">T13*_xlfn.SWITCH(U13, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$13</f>
         <v/>
       </c>
-      <c r="W13" s="17" t="n"/>
+      <c r="W13" s="17" t="n">
+        <v>59</v>
+      </c>
       <c r="X13" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2745,7 +2767,9 @@
         <f t="array" ref="V14">T14*_xlfn.SWITCH(U14, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$14</f>
         <v/>
       </c>
-      <c r="W14" s="25" t="n"/>
+      <c r="W14" s="25" t="n">
+        <v>66</v>
+      </c>
       <c r="X14" s="26" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2890,7 +2914,9 @@
         <f t="array" ref="V15">T15*_xlfn.SWITCH(U15, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$15</f>
         <v/>
       </c>
-      <c r="W15" s="9" t="n"/>
+      <c r="W15" s="9" t="n">
+        <v>18</v>
+      </c>
       <c r="X15" s="10" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3030,7 +3056,9 @@
         <f t="array" ref="V16">T16*_xlfn.SWITCH(U16, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$16</f>
         <v/>
       </c>
-      <c r="W16" s="17" t="n"/>
+      <c r="W16" s="17" t="n">
+        <v>62</v>
+      </c>
       <c r="X16" s="18" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3170,7 +3198,9 @@
         <f t="array" ref="V17">T17*_xlfn.SWITCH(U17, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$17</f>
         <v/>
       </c>
-      <c r="W17" s="17" t="n"/>
+      <c r="W17" s="17" t="n">
+        <v>112</v>
+      </c>
       <c r="X17" s="18" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3310,7 +3340,9 @@
         <f t="array" ref="V18">T18*_xlfn.SWITCH(U18, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$18</f>
         <v/>
       </c>
-      <c r="W18" s="17" t="n"/>
+      <c r="W18" s="17" t="n">
+        <v>30</v>
+      </c>
       <c r="X18" s="18" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3459,7 +3491,9 @@
         <f t="array" ref="V19">T19*_xlfn.SWITCH(U19, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$19</f>
         <v/>
       </c>
-      <c r="W19" s="33" t="n"/>
+      <c r="W19" s="33" t="n">
+        <v>84</v>
+      </c>
       <c r="X19" s="34" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3596,7 +3630,9 @@
         <f t="array" ref="V20">T20*_xlfn.SWITCH(U20, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$20</f>
         <v/>
       </c>
-      <c r="W20" s="17" t="n"/>
+      <c r="W20" s="17" t="n">
+        <v>55</v>
+      </c>
       <c r="X20" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3737,7 +3773,9 @@
         <f t="array" ref="V21">T21*_xlfn.SWITCH(U21, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$21</f>
         <v/>
       </c>
-      <c r="W21" s="17" t="n"/>
+      <c r="W21" s="17" t="n">
+        <v>71</v>
+      </c>
       <c r="X21" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3879,7 +3917,9 @@
         <f t="array" ref="V22">T22*_xlfn.SWITCH(U22, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$22</f>
         <v/>
       </c>
-      <c r="W22" s="25" t="n"/>
+      <c r="W22" s="25" t="n">
+        <v>56</v>
+      </c>
       <c r="X22" s="26" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4025,7 +4065,9 @@
         <f t="array" ref="V23">T23*_xlfn.SWITCH(U23, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$23</f>
         <v/>
       </c>
-      <c r="W23" s="9" t="n"/>
+      <c r="W23" s="9" t="n">
+        <v>165</v>
+      </c>
       <c r="X23" s="10" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4166,7 +4208,9 @@
         <f t="array" ref="V24">T24*_xlfn.SWITCH(U24, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$24</f>
         <v/>
       </c>
-      <c r="W24" s="17" t="n"/>
+      <c r="W24" s="17" t="n">
+        <v>183</v>
+      </c>
       <c r="X24" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4307,7 +4351,9 @@
         <f t="array" ref="V25">T25*_xlfn.SWITCH(U25, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$25</f>
         <v/>
       </c>
-      <c r="W25" s="17" t="n"/>
+      <c r="W25" s="17" t="n">
+        <v>93</v>
+      </c>
       <c r="X25" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4449,7 +4495,9 @@
         <f t="array" ref="V26">T26*_xlfn.SWITCH(U26, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$26</f>
         <v/>
       </c>
-      <c r="W26" s="25" t="n"/>
+      <c r="W26" s="25" t="n">
+        <v>95</v>
+      </c>
       <c r="X26" s="26" t="inlineStr">
         <is>
           <t>x10</t>
@@ -4589,7 +4637,9 @@
         <f t="array" ref="V27">T27*_xlfn.SWITCH(U27, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$27</f>
         <v/>
       </c>
-      <c r="W27" s="9" t="n"/>
+      <c r="W27" s="9" t="n">
+        <v>54</v>
+      </c>
       <c r="X27" s="10" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4724,7 +4774,9 @@
         <f t="array" ref="V28">T28*_xlfn.SWITCH(U28, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$28</f>
         <v/>
       </c>
-      <c r="W28" s="17" t="n"/>
+      <c r="W28" s="17" t="n">
+        <v>42</v>
+      </c>
       <c r="X28" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4859,7 +4911,9 @@
         <f t="array" ref="V29">T29*_xlfn.SWITCH(U29, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$29</f>
         <v/>
       </c>
-      <c r="W29" s="17" t="n"/>
+      <c r="W29" s="17" t="n">
+        <v>59</v>
+      </c>
       <c r="X29" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4995,7 +5049,9 @@
         <f t="array" ref="V30">T30*_xlfn.SWITCH(U30, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$30</f>
         <v/>
       </c>
-      <c r="W30" s="25" t="n"/>
+      <c r="W30" s="25" t="n">
+        <v>48</v>
+      </c>
       <c r="X30" s="26" t="inlineStr">
         <is>
           <t>x100</t>
@@ -5135,7 +5191,9 @@
         <f t="array" ref="V31">T31*_xlfn.SWITCH(U31, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$31</f>
         <v/>
       </c>
-      <c r="W31" s="9" t="n"/>
+      <c r="W31" s="9" t="n">
+        <v>184</v>
+      </c>
       <c r="X31" s="10" t="inlineStr">
         <is>
           <t>x100</t>
@@ -5270,7 +5328,9 @@
         <f t="array" ref="V32">T32*_xlfn.SWITCH(U32, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$32</f>
         <v/>
       </c>
-      <c r="W32" s="17" t="n"/>
+      <c r="W32" s="17" t="n">
+        <v>138</v>
+      </c>
       <c r="X32" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -5411,7 +5471,9 @@
         <f t="array" ref="V33">T33*_xlfn.SWITCH(U33, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$33</f>
         <v/>
       </c>
-      <c r="W33" s="17" t="n"/>
+      <c r="W33" s="17" t="n">
+        <v>138</v>
+      </c>
       <c r="X33" s="18" t="inlineStr">
         <is>
           <t>x100</t>
@@ -5553,7 +5615,9 @@
         <f t="array" ref="V34">T34*_xlfn.SWITCH(U34, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$34</f>
         <v/>
       </c>
-      <c r="W34" s="25" t="n"/>
+      <c r="W34" s="25" t="n">
+        <v>60</v>
+      </c>
       <c r="X34" s="26" t="inlineStr">
         <is>
           <t>x100</t>

--- a/Arginine CLS with pH BLOB_DETECTOR.xlsx
+++ b/Arginine CLS with pH BLOB_DETECTOR.xlsx
@@ -1206,7 +1206,9 @@
         <f t="array" ref="Y3">W3*_xlfn.SWITCH(X3, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$3</f>
         <v/>
       </c>
-      <c r="Z3" s="12" t="n"/>
+      <c r="Z3" s="12" t="n">
+        <v>37</v>
+      </c>
       <c r="AA3" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1348,7 +1350,9 @@
         <f t="array" ref="Y4">W4*_xlfn.SWITCH(X4, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$4</f>
         <v/>
       </c>
-      <c r="Z4" s="20" t="n"/>
+      <c r="Z4" s="20" t="n">
+        <v>37</v>
+      </c>
       <c r="AA4" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1490,7 +1494,9 @@
         <f t="array" ref="Y5">W5*_xlfn.SWITCH(X5, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$5</f>
         <v/>
       </c>
-      <c r="Z5" s="20" t="n"/>
+      <c r="Z5" s="20" t="n">
+        <v>44</v>
+      </c>
       <c r="AA5" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1633,7 +1639,9 @@
         <f t="array" ref="Y6">W6*_xlfn.SWITCH(X6, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$6</f>
         <v/>
       </c>
-      <c r="Z6" s="28" t="n"/>
+      <c r="Z6" s="28" t="n">
+        <v>34</v>
+      </c>
       <c r="AA6" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -1780,7 +1788,9 @@
         <f t="array" ref="Y7">W7*_xlfn.SWITCH(X7, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$7</f>
         <v/>
       </c>
-      <c r="Z7" s="12" t="n"/>
+      <c r="Z7" s="12" t="n">
+        <v>106</v>
+      </c>
       <c r="AA7" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1922,7 +1932,9 @@
         <f t="array" ref="Y8">W8*_xlfn.SWITCH(X8, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$8</f>
         <v/>
       </c>
-      <c r="Z8" s="20" t="n"/>
+      <c r="Z8" s="20" t="n">
+        <v>34</v>
+      </c>
       <c r="AA8" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2064,7 +2076,9 @@
         <f t="array" ref="Y9">W9*_xlfn.SWITCH(X9, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$9</f>
         <v/>
       </c>
-      <c r="Z9" s="20" t="n"/>
+      <c r="Z9" s="20" t="n">
+        <v>48</v>
+      </c>
       <c r="AA9" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2205,7 +2219,9 @@
         <f t="array" ref="Y10">W10*_xlfn.SWITCH(X10, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$10</f>
         <v/>
       </c>
-      <c r="Z10" s="28" t="n"/>
+      <c r="Z10" s="28" t="n">
+        <v>312</v>
+      </c>
       <c r="AA10" s="29" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2352,7 +2368,9 @@
         <f t="array" ref="Y11">W11*_xlfn.SWITCH(X11, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$11</f>
         <v/>
       </c>
-      <c r="Z11" s="12" t="n"/>
+      <c r="Z11" s="12" t="n">
+        <v>59</v>
+      </c>
       <c r="AA11" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2494,7 +2512,9 @@
         <f t="array" ref="Y12">W12*_xlfn.SWITCH(X12, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$12</f>
         <v/>
       </c>
-      <c r="Z12" s="20" t="n"/>
+      <c r="Z12" s="20" t="n">
+        <v>35</v>
+      </c>
       <c r="AA12" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2636,7 +2656,9 @@
         <f t="array" ref="Y13">W13*_xlfn.SWITCH(X13, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$13</f>
         <v/>
       </c>
-      <c r="Z13" s="20" t="n"/>
+      <c r="Z13" s="20" t="n">
+        <v>72</v>
+      </c>
       <c r="AA13" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2779,7 +2801,9 @@
         <f t="array" ref="Y14">W14*_xlfn.SWITCH(X14, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$14</f>
         <v/>
       </c>
-      <c r="Z14" s="28" t="n"/>
+      <c r="Z14" s="28" t="n">
+        <v>69</v>
+      </c>
       <c r="AA14" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -2926,7 +2950,9 @@
         <f t="array" ref="Y15">W15*_xlfn.SWITCH(X15, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$15</f>
         <v/>
       </c>
-      <c r="Z15" s="12" t="n"/>
+      <c r="Z15" s="12" t="n">
+        <v>6</v>
+      </c>
       <c r="AA15" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3068,7 +3094,9 @@
         <f t="array" ref="Y16">W16*_xlfn.SWITCH(X16, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$16</f>
         <v/>
       </c>
-      <c r="Z16" s="20" t="n"/>
+      <c r="Z16" s="20" t="n">
+        <v>32</v>
+      </c>
       <c r="AA16" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3210,7 +3238,9 @@
         <f t="array" ref="Y17">W17*_xlfn.SWITCH(X17, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$17</f>
         <v/>
       </c>
-      <c r="Z17" s="20" t="n"/>
+      <c r="Z17" s="20" t="n">
+        <v>44</v>
+      </c>
       <c r="AA17" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3352,7 +3382,9 @@
         <f t="array" ref="Y18">W18*_xlfn.SWITCH(X18, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$18</f>
         <v/>
       </c>
-      <c r="Z18" s="20" t="n"/>
+      <c r="Z18" s="20" t="n">
+        <v>27</v>
+      </c>
       <c r="AA18" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3503,7 +3535,9 @@
         <f t="array" ref="Y19">W19*_xlfn.SWITCH(X19, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$19</f>
         <v/>
       </c>
-      <c r="Z19" s="36" t="n"/>
+      <c r="Z19" s="36" t="n">
+        <v>79</v>
+      </c>
       <c r="AA19" s="37" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3642,7 +3676,9 @@
         <f t="array" ref="Y20">W20*_xlfn.SWITCH(X20, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$20</f>
         <v/>
       </c>
-      <c r="Z20" s="20" t="n"/>
+      <c r="Z20" s="20" t="n">
+        <v>50</v>
+      </c>
       <c r="AA20" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3785,7 +3821,9 @@
         <f t="array" ref="Y21">W21*_xlfn.SWITCH(X21, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$21</f>
         <v/>
       </c>
-      <c r="Z21" s="20" t="n"/>
+      <c r="Z21" s="20" t="n">
+        <v>51</v>
+      </c>
       <c r="AA21" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3929,7 +3967,9 @@
         <f t="array" ref="Y22">W22*_xlfn.SWITCH(X22, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$22</f>
         <v/>
       </c>
-      <c r="Z22" s="28" t="n"/>
+      <c r="Z22" s="28" t="n">
+        <v>47</v>
+      </c>
       <c r="AA22" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4077,7 +4117,9 @@
         <f t="array" ref="Y23">W23*_xlfn.SWITCH(X23, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$23</f>
         <v/>
       </c>
-      <c r="Z23" s="12" t="n"/>
+      <c r="Z23" s="12" t="n">
+        <v>171</v>
+      </c>
       <c r="AA23" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4220,7 +4262,9 @@
         <f t="array" ref="Y24">W24*_xlfn.SWITCH(X24, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$24</f>
         <v/>
       </c>
-      <c r="Z24" s="20" t="n"/>
+      <c r="Z24" s="20" t="n">
+        <v>165</v>
+      </c>
       <c r="AA24" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4363,7 +4407,9 @@
         <f t="array" ref="Y25">W25*_xlfn.SWITCH(X25, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$25</f>
         <v/>
       </c>
-      <c r="Z25" s="20" t="n"/>
+      <c r="Z25" s="20" t="n">
+        <v>98</v>
+      </c>
       <c r="AA25" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4507,7 +4553,9 @@
         <f t="array" ref="Y26">W26*_xlfn.SWITCH(X26, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$26</f>
         <v/>
       </c>
-      <c r="Z26" s="28" t="n"/>
+      <c r="Z26" s="28" t="n">
+        <v>63</v>
+      </c>
       <c r="AA26" s="29" t="inlineStr">
         <is>
           <t>x10</t>
@@ -4649,7 +4697,9 @@
         <f t="array" ref="Y27">W27*_xlfn.SWITCH(X27, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$27</f>
         <v/>
       </c>
-      <c r="Z27" s="12" t="n"/>
+      <c r="Z27" s="12" t="n">
+        <v>48</v>
+      </c>
       <c r="AA27" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4786,7 +4836,9 @@
         <f t="array" ref="Y28">W28*_xlfn.SWITCH(X28, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$28</f>
         <v/>
       </c>
-      <c r="Z28" s="20" t="n"/>
+      <c r="Z28" s="20" t="n">
+        <v>24</v>
+      </c>
       <c r="AA28" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4923,7 +4975,9 @@
         <f t="array" ref="Y29">W29*_xlfn.SWITCH(X29, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$29</f>
         <v/>
       </c>
-      <c r="Z29" s="20" t="n"/>
+      <c r="Z29" s="20" t="n">
+        <v>53</v>
+      </c>
       <c r="AA29" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -5061,7 +5115,9 @@
         <f t="array" ref="Y30">W30*_xlfn.SWITCH(X30, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$30</f>
         <v/>
       </c>
-      <c r="Z30" s="28" t="n"/>
+      <c r="Z30" s="28" t="n">
+        <v>38</v>
+      </c>
       <c r="AA30" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -5203,7 +5259,9 @@
         <f t="array" ref="Y31">W31*_xlfn.SWITCH(X31, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$31</f>
         <v/>
       </c>
-      <c r="Z31" s="12" t="n"/>
+      <c r="Z31" s="12" t="n">
+        <v>28</v>
+      </c>
       <c r="AA31" s="13" t="inlineStr">
         <is>
           <t>x1000</t>
@@ -5340,7 +5398,9 @@
         <f t="array" ref="Y32">W32*_xlfn.SWITCH(X32, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$32</f>
         <v/>
       </c>
-      <c r="Z32" s="20" t="n"/>
+      <c r="Z32" s="20" t="n">
+        <v>159</v>
+      </c>
       <c r="AA32" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -5483,7 +5543,9 @@
         <f t="array" ref="Y33">W33*_xlfn.SWITCH(X33, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$33</f>
         <v/>
       </c>
-      <c r="Z33" s="20" t="n"/>
+      <c r="Z33" s="20" t="n">
+        <v>60</v>
+      </c>
       <c r="AA33" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -5627,7 +5689,9 @@
         <f t="array" ref="Y34">W34*_xlfn.SWITCH(X34, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$34</f>
         <v/>
       </c>
-      <c r="Z34" s="28" t="n"/>
+      <c r="Z34" s="28" t="n">
+        <v>35</v>
+      </c>
       <c r="AA34" s="29" t="inlineStr">
         <is>
           <t>x100</t>

--- a/Arginine CLS with pH BLOB_DETECTOR.xlsx
+++ b/Arginine CLS with pH BLOB_DETECTOR.xlsx
@@ -1228,7 +1228,9 @@
         <f t="array" ref="AE3">AC3*_xlfn.SWITCH(AD3, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$3</f>
         <v/>
       </c>
-      <c r="AF3" s="12" t="n"/>
+      <c r="AF3" s="12" t="n">
+        <v>80</v>
+      </c>
       <c r="AG3" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1372,7 +1374,9 @@
         <f t="array" ref="AE4">AC4*_xlfn.SWITCH(AD4, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$4</f>
         <v/>
       </c>
-      <c r="AF4" s="20" t="n"/>
+      <c r="AF4" s="20" t="n">
+        <v>70</v>
+      </c>
       <c r="AG4" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1516,7 +1520,9 @@
         <f t="array" ref="AE5">AC5*_xlfn.SWITCH(AD5, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$5</f>
         <v/>
       </c>
-      <c r="AF5" s="20" t="n"/>
+      <c r="AF5" s="20" t="n">
+        <v>43</v>
+      </c>
       <c r="AG5" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1661,7 +1667,9 @@
         <f t="array" ref="AE6">AC6*_xlfn.SWITCH(AD6, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$6</f>
         <v/>
       </c>
-      <c r="AF6" s="28" t="n"/>
+      <c r="AF6" s="28" t="n">
+        <v>176</v>
+      </c>
       <c r="AG6" s="29" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1810,7 +1818,9 @@
         <f t="array" ref="AE7">AC7*_xlfn.SWITCH(AD7, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$7</f>
         <v/>
       </c>
-      <c r="AF7" s="12" t="n"/>
+      <c r="AF7" s="12" t="n">
+        <v>7</v>
+      </c>
       <c r="AG7" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -1954,7 +1964,9 @@
         <f t="array" ref="AE8">AC8*_xlfn.SWITCH(AD8, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$8</f>
         <v/>
       </c>
-      <c r="AF8" s="20" t="n"/>
+      <c r="AF8" s="20" t="n">
+        <v>8</v>
+      </c>
       <c r="AG8" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2098,7 +2110,9 @@
         <f t="array" ref="AE9">AC9*_xlfn.SWITCH(AD9, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$9</f>
         <v/>
       </c>
-      <c r="AF9" s="20" t="n"/>
+      <c r="AF9" s="20" t="n">
+        <v>12</v>
+      </c>
       <c r="AG9" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2241,7 +2255,9 @@
         <f t="array" ref="AE10">AC10*_xlfn.SWITCH(AD10, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$10</f>
         <v/>
       </c>
-      <c r="AF10" s="28" t="n"/>
+      <c r="AF10" s="28" t="n">
+        <v>4</v>
+      </c>
       <c r="AG10" s="29" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2390,7 +2406,9 @@
         <f t="array" ref="AE11">AC11*_xlfn.SWITCH(AD11, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$11</f>
         <v/>
       </c>
-      <c r="AF11" s="12" t="n"/>
+      <c r="AF11" s="12" t="n">
+        <v>73</v>
+      </c>
       <c r="AG11" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2534,7 +2552,9 @@
         <f t="array" ref="AE12">AC12*_xlfn.SWITCH(AD12, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$12</f>
         <v/>
       </c>
-      <c r="AF12" s="20" t="n"/>
+      <c r="AF12" s="20" t="n">
+        <v>11</v>
+      </c>
       <c r="AG12" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2678,7 +2698,9 @@
         <f t="array" ref="AE13">AC13*_xlfn.SWITCH(AD13, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$13</f>
         <v/>
       </c>
-      <c r="AF13" s="20" t="n"/>
+      <c r="AF13" s="20" t="n">
+        <v>76</v>
+      </c>
       <c r="AG13" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2823,7 +2845,9 @@
         <f t="array" ref="AE14">AC14*_xlfn.SWITCH(AD14, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$14</f>
         <v/>
       </c>
-      <c r="AF14" s="28" t="n"/>
+      <c r="AF14" s="28" t="n">
+        <v>91</v>
+      </c>
       <c r="AG14" s="29" t="inlineStr">
         <is>
           <t>x10</t>
@@ -2972,7 +2996,9 @@
         <f t="array" ref="AE15">AC15*_xlfn.SWITCH(AD15, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$15</f>
         <v/>
       </c>
-      <c r="AF15" s="12" t="n"/>
+      <c r="AF15" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AG15" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3116,7 +3142,9 @@
         <f t="array" ref="AE16">AC16*_xlfn.SWITCH(AD16, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$16</f>
         <v/>
       </c>
-      <c r="AF16" s="20" t="n"/>
+      <c r="AF16" s="20" t="n">
+        <v>4</v>
+      </c>
       <c r="AG16" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3260,7 +3288,9 @@
         <f t="array" ref="AE17">AC17*_xlfn.SWITCH(AD17, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$17</f>
         <v/>
       </c>
-      <c r="AF17" s="20" t="n"/>
+      <c r="AF17" s="20" t="n">
+        <v>4</v>
+      </c>
       <c r="AG17" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3404,7 +3434,9 @@
         <f t="array" ref="AE18">AC18*_xlfn.SWITCH(AD18, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$18</f>
         <v/>
       </c>
-      <c r="AF18" s="20" t="n"/>
+      <c r="AF18" s="20" t="n">
+        <v>4</v>
+      </c>
       <c r="AG18" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3557,7 +3589,9 @@
         <f t="array" ref="AE19">AC19*_xlfn.SWITCH(AD19, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$19</f>
         <v/>
       </c>
-      <c r="AF19" s="36" t="n"/>
+      <c r="AF19" s="36" t="n">
+        <v>31</v>
+      </c>
       <c r="AG19" s="37" t="inlineStr">
         <is>
           <t>x100</t>
@@ -3698,7 +3732,9 @@
         <f t="array" ref="AE20">AC20*_xlfn.SWITCH(AD20, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$20</f>
         <v/>
       </c>
-      <c r="AF20" s="20" t="n"/>
+      <c r="AF20" s="20" t="n">
+        <v>112</v>
+      </c>
       <c r="AG20" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3843,7 +3879,9 @@
         <f t="array" ref="AE21">AC21*_xlfn.SWITCH(AD21, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$21</f>
         <v/>
       </c>
-      <c r="AF21" s="20" t="n"/>
+      <c r="AF21" s="20" t="n">
+        <v>220</v>
+      </c>
       <c r="AG21" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -3989,7 +4027,9 @@
         <f t="array" ref="AE22">AC22*_xlfn.SWITCH(AD22, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$22</f>
         <v/>
       </c>
-      <c r="AF22" s="28" t="n"/>
+      <c r="AF22" s="28" t="n">
+        <v>57</v>
+      </c>
       <c r="AG22" s="29" t="inlineStr">
         <is>
           <t>x10</t>
@@ -4139,7 +4179,9 @@
         <f t="array" ref="AE23">AC23*_xlfn.SWITCH(AD23, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$23</f>
         <v/>
       </c>
-      <c r="AF23" s="12" t="n"/>
+      <c r="AF23" s="12" t="n">
+        <v>105</v>
+      </c>
       <c r="AG23" s="13" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4284,7 +4326,9 @@
         <f t="array" ref="AE24">AC24*_xlfn.SWITCH(AD24, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$24</f>
         <v/>
       </c>
-      <c r="AF24" s="20" t="n"/>
+      <c r="AF24" s="20" t="n">
+        <v>60</v>
+      </c>
       <c r="AG24" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4429,7 +4473,9 @@
         <f t="array" ref="AE25">AC25*_xlfn.SWITCH(AD25, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$25</f>
         <v/>
       </c>
-      <c r="AF25" s="20" t="n"/>
+      <c r="AF25" s="20" t="n">
+        <v>133</v>
+      </c>
       <c r="AG25" s="21" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4575,7 +4621,9 @@
         <f t="array" ref="AE26">AC26*_xlfn.SWITCH(AD26, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$26</f>
         <v/>
       </c>
-      <c r="AF26" s="28" t="n"/>
+      <c r="AF26" s="28" t="n">
+        <v>180</v>
+      </c>
       <c r="AG26" s="29" t="inlineStr">
         <is>
           <t>x100</t>
@@ -4719,7 +4767,9 @@
         <f t="array" ref="AE27">AC27*_xlfn.SWITCH(AD27, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$27</f>
         <v/>
       </c>
-      <c r="AF27" s="12" t="n"/>
+      <c r="AF27" s="12" t="n">
+        <v>251</v>
+      </c>
       <c r="AG27" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -4858,7 +4908,9 @@
         <f t="array" ref="AE28">AC28*_xlfn.SWITCH(AD28, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$28</f>
         <v/>
       </c>
-      <c r="AF28" s="20" t="n"/>
+      <c r="AF28" s="20" t="n">
+        <v>252</v>
+      </c>
       <c r="AG28" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -4997,7 +5049,9 @@
         <f t="array" ref="AE29">AC29*_xlfn.SWITCH(AD29, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$29</f>
         <v/>
       </c>
-      <c r="AF29" s="20" t="n"/>
+      <c r="AF29" s="20" t="n">
+        <v>251</v>
+      </c>
       <c r="AG29" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -5137,7 +5191,9 @@
         <f t="array" ref="AE30">AC30*_xlfn.SWITCH(AD30, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$30</f>
         <v/>
       </c>
-      <c r="AF30" s="28" t="n"/>
+      <c r="AF30" s="28" t="n">
+        <v>223</v>
+      </c>
       <c r="AG30" s="29" t="inlineStr">
         <is>
           <t>x10</t>
@@ -5281,7 +5337,9 @@
         <f t="array" ref="AE31">AC31*_xlfn.SWITCH(AD31, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$31</f>
         <v/>
       </c>
-      <c r="AF31" s="12" t="n"/>
+      <c r="AF31" s="12" t="n">
+        <v>180</v>
+      </c>
       <c r="AG31" s="13" t="inlineStr">
         <is>
           <t>x10</t>
@@ -5420,7 +5478,9 @@
         <f t="array" ref="AE32">AC32*_xlfn.SWITCH(AD32, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$32</f>
         <v/>
       </c>
-      <c r="AF32" s="20" t="n"/>
+      <c r="AF32" s="20" t="n">
+        <v>245</v>
+      </c>
       <c r="AG32" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -5565,7 +5625,9 @@
         <f t="array" ref="AE33">AC33*_xlfn.SWITCH(AD33, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$33</f>
         <v/>
       </c>
-      <c r="AF33" s="20" t="n"/>
+      <c r="AF33" s="20" t="n">
+        <v>67</v>
+      </c>
       <c r="AG33" s="21" t="inlineStr">
         <is>
           <t>x10</t>
@@ -5711,7 +5773,9 @@
         <f t="array" ref="AE34">AC34*_xlfn.SWITCH(AD34, "x10", 0.01, "x100", 0.1,"x1000", 1, 0)/$D$34</f>
         <v/>
       </c>
-      <c r="AF34" s="28" t="n"/>
+      <c r="AF34" s="28" t="n">
+        <v>10</v>
+      </c>
       <c r="AG34" s="29" t="inlineStr">
         <is>
           <t>x10</t>
